--- a/Excel/7. Excel_Textual_Functions/Textual_Functions.xlsx
+++ b/Excel/7. Excel_Textual_Functions/Textual_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ds_30\Excel\Data files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Weekend\Excel\7. Excel_Textual_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AF28DA-AA35-4478-836E-BDAB72CE77FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BC5F48-5965-4FA3-8720-46CA9FA529A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="862" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRIM" sheetId="2" r:id="rId1"/>
@@ -708,62 +708,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1668,30 +1668,29 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0.7265625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="3.7265625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" customWidth="1"/>
-    <col min="12" max="12" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7265625" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.77734375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="3.77734375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1699,39 +1698,39 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
       <c r="AA1" s="15"/>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1748,13 +1747,13 @@
       <c r="O4" s="55"/>
       <c r="P4" s="55"/>
     </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1770,12 +1769,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
       <c r="L6" s="24" t="s">
         <v>36</v>
       </c>
@@ -1787,12 +1786,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
       <c r="L7" s="24" t="s">
         <v>37</v>
       </c>
@@ -1801,115 +1800,120 @@
       <c r="O7" s="56"/>
       <c r="P7" s="56"/>
     </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
+    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
     </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
       <c r="M9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-    </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
       <c r="L11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-    </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-    </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+    </row>
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-    </row>
-    <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-    </row>
-    <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-    </row>
-    <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-    </row>
-    <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-    </row>
-    <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+    </row>
+    <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+    </row>
+    <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+    </row>
+    <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+    </row>
+    <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="C4:G11"/>
     <mergeCell ref="C14:G21"/>
     <mergeCell ref="K1:L1"/>
@@ -1920,11 +1924,6 @@
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1935,29 +1934,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="78" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="78" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="3.7265625" customWidth="1"/>
-    <col min="9" max="9" width="0.7265625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="3.7265625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" customWidth="1"/>
-    <col min="12" max="12" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.1796875" customWidth="1"/>
-    <col min="14" max="14" width="40.453125" customWidth="1"/>
-    <col min="15" max="15" width="25.7265625" customWidth="1"/>
+    <col min="1" max="2" width="3.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="3.77734375" customWidth="1"/>
+    <col min="9" max="9" width="0.77734375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="3.77734375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.21875" customWidth="1"/>
+    <col min="14" max="14" width="40.44140625" customWidth="1"/>
+    <col min="15" max="15" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>14</v>
@@ -1970,35 +1969,35 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
       <c r="AA1" s="15"/>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="12"/>
       <c r="M3" t="str">
         <f>CONCATENATE(L4,M4,N4)</f>
         <v>MathsScienceEnglish</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
       <c r="C4" s="57" t="s">
         <v>15</v>
@@ -2023,7 +2022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="60"/>
       <c r="D5" s="61"/>
@@ -2046,7 +2045,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="60"/>
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
@@ -2065,7 +2064,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="60"/>
       <c r="D7" s="61"/>
       <c r="E7" s="61"/>
@@ -2084,7 +2083,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="60"/>
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
@@ -2103,7 +2102,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="60"/>
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
@@ -2122,14 +2121,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="60"/>
       <c r="D10" s="61"/>
       <c r="E10" s="61"/>
       <c r="F10" s="61"/>
       <c r="G10" s="62"/>
     </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="63"/>
       <c r="D11" s="64"/>
@@ -2137,11 +2136,11 @@
       <c r="F11" s="64"/>
       <c r="G11" s="65"/>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C13" s="13"/>
       <c r="L13" s="29" t="s">
         <v>17</v>
@@ -2150,15 +2149,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
       <c r="K14" s="22" t="s">
         <v>1</v>
       </c>
@@ -2172,13 +2171,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
       <c r="K15" s="28" t="s">
         <v>38</v>
       </c>
@@ -2192,13 +2191,13 @@
         <v>Student 1 has scored 81 in English.</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
       <c r="K16" s="28" t="s">
         <v>39</v>
       </c>
@@ -2206,12 +2205,12 @@
       <c r="M16" s="28"/>
       <c r="N16" s="28"/>
     </row>
-    <row r="17" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+    <row r="17" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
       <c r="K17" s="28" t="s">
         <v>40</v>
       </c>
@@ -2219,12 +2218,12 @@
       <c r="M17" s="28"/>
       <c r="N17" s="28"/>
     </row>
-    <row r="18" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
+    <row r="18" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
       <c r="K18" s="28" t="s">
         <v>41</v>
       </c>
@@ -2232,12 +2231,12 @@
       <c r="M18" s="28"/>
       <c r="N18" s="28"/>
     </row>
-    <row r="19" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
+    <row r="19" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
       <c r="K19" s="28" t="s">
         <v>42</v>
       </c>
@@ -2245,19 +2244,19 @@
       <c r="M19" s="28"/>
       <c r="N19" s="28"/>
     </row>
-    <row r="20" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-    </row>
-    <row r="21" spans="3:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
+    <row r="20" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+    </row>
+    <row r="21" spans="3:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2285,26 +2284,26 @@
       <selection activeCell="N8" sqref="N8:O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="7.1796875" customWidth="1"/>
-    <col min="9" max="9" width="0.7265625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="3.7265625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="16.1796875" customWidth="1"/>
-    <col min="15" max="15" width="25.81640625" customWidth="1"/>
-    <col min="18" max="18" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" customWidth="1"/>
+    <col min="9" max="9" width="0.77734375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="3.77734375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" customWidth="1"/>
+    <col min="15" max="15" width="25.77734375" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -2317,30 +2316,30 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
+      <c r="L1" s="54"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
       <c r="Z1" s="15"/>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
       <c r="C4" s="57" t="s">
         <v>10</v>
@@ -2354,7 +2353,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="60"/>
       <c r="D5" s="61"/>
@@ -2366,7 +2365,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="60"/>
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
@@ -2387,7 +2386,7 @@
       <c r="Q6" s="55"/>
       <c r="R6" s="55"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="60"/>
       <c r="D7" s="61"/>
       <c r="E7" s="61"/>
@@ -2407,7 +2406,7 @@
       <c r="Q7" s="56"/>
       <c r="R7" s="56"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="60"/>
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
@@ -2424,7 +2423,7 @@
       <c r="Q8" s="56"/>
       <c r="R8" s="56"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="60"/>
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
@@ -2441,14 +2440,14 @@
       <c r="Q9" s="56"/>
       <c r="R9" s="56"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="60"/>
       <c r="D10" s="61"/>
       <c r="E10" s="61"/>
       <c r="F10" s="61"/>
       <c r="G10" s="62"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="63"/>
       <c r="D11" s="64"/>
@@ -2456,76 +2455,81 @@
       <c r="F11" s="64"/>
       <c r="G11" s="65"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-    </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-    </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+    </row>
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-    </row>
-    <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-    </row>
-    <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-    </row>
-    <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-    </row>
-    <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-    </row>
-    <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+    </row>
+    <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+    </row>
+    <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+    </row>
+    <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+    </row>
+    <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:R9"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
@@ -2542,11 +2546,6 @@
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:R7"/>
     <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:R9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2561,25 +2560,25 @@
       <selection activeCell="M5" sqref="M5:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0.7265625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="3.7265625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.77734375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="3.77734375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>19</v>
@@ -2592,30 +2591,30 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
       <c r="Z1" s="15"/>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
       <c r="C4" s="57" t="s">
         <v>20</v>
@@ -2638,7 +2637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="60"/>
       <c r="D5" s="61"/>
@@ -2655,7 +2654,7 @@
       <c r="M5" s="27"/>
       <c r="N5" s="27"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="60"/>
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
@@ -2667,7 +2666,7 @@
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="60"/>
       <c r="D7" s="61"/>
       <c r="E7" s="61"/>
@@ -2683,7 +2682,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="60"/>
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
@@ -2695,7 +2694,7 @@
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="60"/>
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
@@ -2707,14 +2706,14 @@
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="60"/>
       <c r="D10" s="61"/>
       <c r="E10" s="61"/>
       <c r="F10" s="61"/>
       <c r="G10" s="62"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="63"/>
       <c r="D11" s="64"/>
@@ -2722,73 +2721,73 @@
       <c r="F11" s="64"/>
       <c r="G11" s="65"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-    </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-    </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+    </row>
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-    </row>
-    <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-    </row>
-    <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-    </row>
-    <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-    </row>
-    <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-    </row>
-    <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+    </row>
+    <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+    </row>
+    <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+    </row>
+    <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+    </row>
+    <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2815,26 +2814,25 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0.7265625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="3.7265625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="11.7265625" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" customWidth="1"/>
-    <col min="17" max="17" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.77734375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="3.77734375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="14" width="11.77734375" customWidth="1"/>
+    <col min="17" max="17" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>24</v>
@@ -2847,31 +2845,31 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
       <c r="AA1" s="15"/>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
       <c r="C4" s="57" t="s">
         <v>23</v>
@@ -2891,7 +2889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="60"/>
       <c r="D5" s="61"/>
@@ -2907,7 +2905,7 @@
       </c>
       <c r="M5" s="35"/>
     </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="60"/>
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
@@ -2918,7 +2916,7 @@
       </c>
       <c r="M6" s="35"/>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="60"/>
       <c r="D7" s="61"/>
       <c r="E7" s="61"/>
@@ -2929,7 +2927,7 @@
       </c>
       <c r="M7" s="35"/>
     </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="60"/>
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
@@ -2940,7 +2938,7 @@
       </c>
       <c r="M8" s="35"/>
     </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="60"/>
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
@@ -2951,14 +2949,14 @@
       </c>
       <c r="M9" s="35"/>
     </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="60"/>
       <c r="D10" s="61"/>
       <c r="E10" s="61"/>
       <c r="F10" s="61"/>
       <c r="G10" s="62"/>
     </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="63"/>
       <c r="D11" s="64"/>
@@ -2966,76 +2964,76 @@
       <c r="F11" s="64"/>
       <c r="G11" s="65"/>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
       <c r="L12" s="34"/>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-    </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-    </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+    </row>
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-    </row>
-    <row r="17" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-    </row>
-    <row r="18" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-    </row>
-    <row r="19" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-    </row>
-    <row r="20" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-    </row>
-    <row r="21" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-    </row>
-    <row r="22" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+    </row>
+    <row r="17" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+    </row>
+    <row r="18" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+    </row>
+    <row r="19" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+    </row>
+    <row r="21" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+    </row>
+    <row r="22" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
@@ -3046,7 +3044,7 @@
       <c r="R22" s="26"/>
       <c r="S22" s="26"/>
     </row>
-    <row r="23" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
@@ -3079,30 +3077,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0.7265625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="3.7265625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" customWidth="1"/>
-    <col min="12" max="12" width="20.54296875" customWidth="1"/>
-    <col min="13" max="13" width="17.26953125" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" customWidth="1"/>
-    <col min="15" max="15" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.77734375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="3.77734375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" customWidth="1"/>
+    <col min="14" max="14" width="21.77734375" customWidth="1"/>
+    <col min="15" max="15" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -3115,31 +3113,31 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
       <c r="AA1" s="15"/>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
       <c r="C4" s="67" t="s">
         <v>30</v>
@@ -3152,7 +3150,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="60"/>
       <c r="D5" s="61"/>
@@ -3175,7 +3173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="60"/>
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
@@ -3188,7 +3186,7 @@
       <c r="N6" s="32"/>
       <c r="O6" s="32"/>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="60"/>
       <c r="D7" s="61"/>
       <c r="E7" s="61"/>
@@ -3201,7 +3199,7 @@
       <c r="N7" s="32"/>
       <c r="O7" s="32"/>
     </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="60"/>
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
@@ -3214,7 +3212,7 @@
       <c r="N8" s="32"/>
       <c r="O8" s="32"/>
     </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="60"/>
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
@@ -3227,7 +3225,7 @@
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
     </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="60"/>
       <c r="D10" s="61"/>
       <c r="E10" s="61"/>
@@ -3240,7 +3238,7 @@
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
     </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="63"/>
       <c r="D11" s="64"/>
@@ -3254,73 +3252,73 @@
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-    </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-    </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+    </row>
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-    </row>
-    <row r="17" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-    </row>
-    <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-    </row>
-    <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-    </row>
-    <row r="20" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-    </row>
-    <row r="21" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+    </row>
+    <row r="17" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+    </row>
+    <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+    </row>
+    <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+    </row>
+    <row r="21" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
       <c r="M21" s="21"/>
     </row>
   </sheetData>
